--- a/xlsx/coarse_taxa.xlsx
+++ b/xlsx/coarse_taxa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\R_packages\GRSPRSThesisData\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91922E9E-012E-4166-8BF2-F38EB60FD5F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A3782D-5C49-491F-8674-7DF6B35F8AF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>Taxon</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Scleractinia</t>
-  </si>
-  <si>
-    <t>Cnidarian</t>
   </si>
   <si>
     <t>Group</t>
@@ -555,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
